--- a/data/evaluation/evaluation_South_Summer_Tomatoes.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Tomatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2980.832023077522</v>
+        <v>2960.090510822623</v>
       </c>
       <c r="C4" t="n">
-        <v>13781436.93822077</v>
+        <v>13701752.95129162</v>
       </c>
       <c r="D4" t="n">
-        <v>3712.335779293243</v>
+        <v>3701.587895929478</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01474881637045222</v>
+        <v>0.02044551859317434</v>
       </c>
     </row>
     <row r="5">
